--- a/[1분반]2013136118_정진모_마프_재료구매신청서.xlsx
+++ b/[1분반]2013136118_정진모_마프_재료구매신청서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\대학원\조교\2016년 2학기\마이크로프로세서\stu\2013136118\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>과제명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,14 +111,26 @@
   </si>
   <si>
     <t>7세그먼트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재고 보유하고 있으므로 빼주세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재고 보유하고 있으므로 빼주세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료실에 있는 걸로 알고 있는데 제어용 칩은 구매 안하시나요?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,28 +165,20 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="함초롬바탕"/>
       <family val="1"/>
       <charset val="129"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="돋움"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,6 +189,11 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -249,15 +258,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -267,6 +279,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -276,26 +297,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="0" xfId="2" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="좋음" xfId="2" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
@@ -745,13 +764,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="26.625" customWidth="1"/>
     <col min="3" max="3" width="17.125" customWidth="1"/>
@@ -759,70 +778,70 @@
     <col min="7" max="7" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="6">
         <v>2013136118</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -845,35 +864,39 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="234" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+    <row r="7" spans="1:9" ht="234" customHeight="1">
+      <c r="A7" s="9">
         <v>1</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="10">
         <v>2640</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="9">
         <v>4</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="11">
         <f>C7*D7</f>
         <v>10560</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="225" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="12"/>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="225" customHeight="1">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="3">
         <v>4400</v>
       </c>
       <c r="D8" s="2">
@@ -883,44 +906,51 @@
         <f>C8*D8</f>
         <v>13200</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="220.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+    <row r="9" spans="1:9" ht="220.5" customHeight="1">
+      <c r="A9" s="9">
         <v>3</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="10">
         <v>1430</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="9">
         <v>1</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="11">
         <v>1430</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="G9" s="12"/>
+      <c r="I9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="9">
         <v>4</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="I10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -929,7 +959,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -938,7 +968,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -947,7 +977,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -956,7 +986,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -965,7 +995,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -974,7 +1004,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
